--- a/Archivos de excel/Clusters_cercanas.xlsx
+++ b/Archivos de excel/Clusters_cercanas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="100" sheetId="1" r:id="rId1"/>
@@ -158,14 +158,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -450,7 +450,7 @@
   <dimension ref="A1:W453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,12 +658,12 @@
       <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -7288,7 +7288,7 @@
       <c r="K177" s="3">
         <v>8.91401E-2</v>
       </c>
-      <c r="L177" s="7">
+      <c r="L177" s="6">
         <v>4</v>
       </c>
       <c r="M177" s="3">
@@ -10922,7 +10922,7 @@
       <c r="K272" s="3">
         <v>8.8144449999999999E-2</v>
       </c>
-      <c r="L272" s="7">
+      <c r="L272" s="6">
         <v>4</v>
       </c>
       <c r="M272" s="3">
@@ -10963,7 +10963,7 @@
       <c r="K273" s="3">
         <v>9.7564709999999999E-2</v>
       </c>
-      <c r="L273" s="7">
+      <c r="L273" s="6">
         <v>4</v>
       </c>
       <c r="M273" s="3">
@@ -11004,7 +11004,7 @@
       <c r="K274" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L274" s="7">
+      <c r="L274" s="6">
         <v>4</v>
       </c>
       <c r="M274" s="3">
@@ -11045,7 +11045,7 @@
       <c r="K275" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L275" s="8">
+      <c r="L275" s="7">
         <v>4</v>
       </c>
       <c r="M275" s="3">
@@ -17839,15 +17839,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V453"/>
+  <dimension ref="A1:Z453"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>1</v>
       </c>
@@ -17855,7 +17855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -17931,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -17972,7 +17972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -18013,7 +18013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -18056,14 +18056,14 @@
       <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -18122,7 +18122,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -18156,6 +18156,9 @@
       <c r="K8" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
       <c r="M8" s="3">
         <v>13</v>
       </c>
@@ -18181,7 +18184,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -18215,7 +18218,7 @@
       <c r="K9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9" s="3">
@@ -18224,8 +18227,20 @@
       <c r="P9" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>13</v>
+      </c>
+      <c r="S9">
+        <v>21</v>
+      </c>
+      <c r="T9">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -18268,8 +18283,20 @@
       <c r="P10" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10">
+        <v>14</v>
+      </c>
+      <c r="R10">
+        <v>15</v>
+      </c>
+      <c r="S10">
+        <v>22</v>
+      </c>
+      <c r="T10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -18309,8 +18336,23 @@
       <c r="P11" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11">
+        <v>36</v>
+      </c>
+      <c r="R11">
+        <v>37</v>
+      </c>
+      <c r="S11">
+        <v>38</v>
+      </c>
+      <c r="T11">
+        <v>447</v>
+      </c>
+      <c r="U11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -18350,8 +18392,26 @@
       <c r="P12" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12">
+        <v>62</v>
+      </c>
+      <c r="R12">
+        <v>67</v>
+      </c>
+      <c r="S12">
+        <v>68</v>
+      </c>
+      <c r="T12">
+        <v>70</v>
+      </c>
+      <c r="U12">
+        <v>71</v>
+      </c>
+      <c r="V12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -18391,8 +18451,20 @@
       <c r="P13" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13">
+        <v>81</v>
+      </c>
+      <c r="R13">
+        <v>84</v>
+      </c>
+      <c r="S13">
+        <v>152</v>
+      </c>
+      <c r="T13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -18426,14 +18498,47 @@
       <c r="K14" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
       <c r="M14" s="3">
         <v>261</v>
       </c>
       <c r="P14" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14">
+        <v>176</v>
+      </c>
+      <c r="R14">
+        <v>266</v>
+      </c>
+      <c r="S14">
+        <v>267</v>
+      </c>
+      <c r="T14">
+        <v>268</v>
+      </c>
+      <c r="U14">
+        <v>269</v>
+      </c>
+      <c r="V14">
+        <v>271</v>
+      </c>
+      <c r="W14">
+        <v>272</v>
+      </c>
+      <c r="X14">
+        <v>273</v>
+      </c>
+      <c r="Y14">
+        <v>274</v>
+      </c>
+      <c r="Z14">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -18467,11 +18572,32 @@
       <c r="K15" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
       <c r="M15" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P15" s="5">
+        <v>9</v>
+      </c>
+      <c r="Q15">
+        <v>208</v>
+      </c>
+      <c r="R15">
+        <v>211</v>
+      </c>
+      <c r="S15">
+        <v>212</v>
+      </c>
+      <c r="T15">
+        <v>218</v>
+      </c>
+      <c r="U15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -18505,11 +18631,29 @@
       <c r="K16" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
       <c r="M16" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P16" s="5">
+        <v>10</v>
+      </c>
+      <c r="Q16">
+        <v>229</v>
+      </c>
+      <c r="R16">
+        <v>235</v>
+      </c>
+      <c r="S16">
+        <v>236</v>
+      </c>
+      <c r="T16">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -18549,8 +18693,26 @@
       <c r="M17" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P17" s="5">
+        <v>11</v>
+      </c>
+      <c r="Q17">
+        <v>284</v>
+      </c>
+      <c r="R17">
+        <v>290</v>
+      </c>
+      <c r="S17">
+        <v>302</v>
+      </c>
+      <c r="T17">
+        <v>303</v>
+      </c>
+      <c r="U17">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -18587,8 +18749,29 @@
       <c r="M18" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="5">
+        <v>12</v>
+      </c>
+      <c r="Q18">
+        <v>383</v>
+      </c>
+      <c r="R18">
+        <v>387</v>
+      </c>
+      <c r="S18">
+        <v>388</v>
+      </c>
+      <c r="T18">
+        <v>389</v>
+      </c>
+      <c r="U18">
+        <v>390</v>
+      </c>
+      <c r="V18">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -18626,7 +18809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -18667,7 +18850,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -18701,14 +18884,14 @@
       <c r="K21" s="3">
         <v>0.19905881</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>1</v>
       </c>
       <c r="M21" s="3">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -18742,11 +18925,14 @@
       <c r="K22" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
       <c r="M22" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -18780,11 +18966,14 @@
       <c r="K23" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
       <c r="M23" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -18825,7 +19014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -18866,7 +19055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -18904,7 +19093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -18942,7 +19131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -18980,7 +19169,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -19014,11 +19203,14 @@
       <c r="K29" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
       <c r="M29" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -19056,7 +19248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -19094,7 +19286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -19318,6 +19510,9 @@
       <c r="K37" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L37">
+        <v>5</v>
+      </c>
       <c r="M37" s="3">
         <v>447</v>
       </c>
@@ -19356,6 +19551,9 @@
       <c r="K38" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L38">
+        <v>5</v>
+      </c>
       <c r="M38" s="3">
         <v>38</v>
       </c>
@@ -19394,6 +19592,9 @@
       <c r="K39" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
       <c r="M39" s="3">
         <v>37</v>
       </c>
@@ -20306,6 +20507,9 @@
       <c r="K63" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L63">
+        <v>6</v>
+      </c>
       <c r="M63" s="3">
         <v>57</v>
       </c>
@@ -20496,6 +20700,9 @@
       <c r="K68" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L68">
+        <v>6</v>
+      </c>
       <c r="M68" s="3">
         <v>73</v>
       </c>
@@ -20534,6 +20741,9 @@
       <c r="K69" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L69">
+        <v>6</v>
+      </c>
       <c r="M69" s="3">
         <v>74</v>
       </c>
@@ -20610,6 +20820,9 @@
       <c r="K71" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L71">
+        <v>6</v>
+      </c>
       <c r="M71" s="3">
         <v>71</v>
       </c>
@@ -20648,6 +20861,9 @@
       <c r="K72" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L72">
+        <v>6</v>
+      </c>
       <c r="M72" s="3">
         <v>70</v>
       </c>
@@ -20762,6 +20978,9 @@
       <c r="K75" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L75">
+        <v>6</v>
+      </c>
       <c r="M75" s="3">
         <v>68</v>
       </c>
@@ -21028,6 +21247,9 @@
       <c r="K82" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L82">
+        <v>7</v>
+      </c>
       <c r="M82" s="3">
         <v>154</v>
       </c>
@@ -21142,6 +21364,9 @@
       <c r="K85" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L85">
+        <v>7</v>
+      </c>
       <c r="M85" s="3">
         <v>81</v>
       </c>
@@ -23732,6 +23957,9 @@
       <c r="K153" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L153">
+        <v>7</v>
+      </c>
       <c r="M153" s="3">
         <v>81</v>
       </c>
@@ -23808,6 +24036,9 @@
       <c r="K155" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L155">
+        <v>7</v>
+      </c>
       <c r="M155" s="3">
         <v>157</v>
       </c>
@@ -24644,6 +24875,9 @@
       <c r="K177" s="3">
         <v>8.91401E-2</v>
       </c>
+      <c r="L177" s="6">
+        <v>8</v>
+      </c>
       <c r="M177" s="3">
         <v>271</v>
       </c>
@@ -25860,6 +26094,9 @@
       <c r="K209" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L209">
+        <v>9</v>
+      </c>
       <c r="M209" s="3">
         <v>211</v>
       </c>
@@ -25974,6 +26211,9 @@
       <c r="K212" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L212">
+        <v>9</v>
+      </c>
       <c r="M212" s="3">
         <v>212</v>
       </c>
@@ -26012,6 +26252,9 @@
       <c r="K213" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L213">
+        <v>9</v>
+      </c>
       <c r="M213" s="3">
         <v>211</v>
       </c>
@@ -26240,6 +26483,9 @@
       <c r="K219" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L219">
+        <v>9</v>
+      </c>
       <c r="M219" s="3">
         <v>212</v>
       </c>
@@ -26468,6 +26714,9 @@
       <c r="K225" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L225">
+        <v>9</v>
+      </c>
       <c r="M225" s="3">
         <v>218</v>
       </c>
@@ -26658,6 +26907,9 @@
       <c r="K230" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L230">
+        <v>10</v>
+      </c>
       <c r="M230" s="3">
         <v>236</v>
       </c>
@@ -26886,6 +27138,9 @@
       <c r="K236" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L236">
+        <v>10</v>
+      </c>
       <c r="M236" s="3">
         <v>236</v>
       </c>
@@ -26924,6 +27179,9 @@
       <c r="K237" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L237">
+        <v>10</v>
+      </c>
       <c r="M237" s="3">
         <v>235</v>
       </c>
@@ -27874,6 +28132,9 @@
       <c r="K262" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L262">
+        <v>3</v>
+      </c>
       <c r="M262" s="3">
         <v>13</v>
       </c>
@@ -28064,6 +28325,9 @@
       <c r="K267" s="3">
         <v>0.16785683000000001</v>
       </c>
+      <c r="L267" s="6">
+        <v>8</v>
+      </c>
       <c r="M267" s="3">
         <v>267</v>
       </c>
@@ -28102,6 +28366,9 @@
       <c r="K268" s="3">
         <v>0.13892541</v>
       </c>
+      <c r="L268" s="6">
+        <v>8</v>
+      </c>
       <c r="M268" s="3">
         <v>266</v>
       </c>
@@ -28140,6 +28407,9 @@
       <c r="K269" s="3">
         <v>0.14779461999999999</v>
       </c>
+      <c r="L269" s="6">
+        <v>8</v>
+      </c>
       <c r="M269" s="3">
         <v>269</v>
       </c>
@@ -28178,6 +28448,9 @@
       <c r="K270" s="3">
         <v>0.14139715999999999</v>
       </c>
+      <c r="L270" s="6">
+        <v>8</v>
+      </c>
       <c r="M270" s="3">
         <v>268</v>
       </c>
@@ -28254,6 +28527,9 @@
       <c r="K272" s="3">
         <v>8.8144449999999999E-2</v>
       </c>
+      <c r="L272" s="6">
+        <v>8</v>
+      </c>
       <c r="M272" s="3">
         <v>176</v>
       </c>
@@ -28292,6 +28568,9 @@
       <c r="K273" s="3">
         <v>9.7564709999999999E-2</v>
       </c>
+      <c r="L273" s="6">
+        <v>8</v>
+      </c>
       <c r="M273" s="3">
         <v>267</v>
       </c>
@@ -28330,6 +28609,9 @@
       <c r="K274" s="3">
         <v>0.13869232000000001</v>
       </c>
+      <c r="L274" s="7">
+        <v>8</v>
+      </c>
       <c r="M274" s="3">
         <v>274</v>
       </c>
@@ -28368,6 +28650,9 @@
       <c r="K275" s="3">
         <v>0.15631027</v>
       </c>
+      <c r="L275" s="7">
+        <v>8</v>
+      </c>
       <c r="M275" s="3">
         <v>273</v>
       </c>
@@ -28406,6 +28691,9 @@
       <c r="K276" s="3">
         <v>0.19519692</v>
       </c>
+      <c r="L276" s="7">
+        <v>8</v>
+      </c>
       <c r="M276" s="3">
         <v>264</v>
       </c>
@@ -28748,6 +29036,9 @@
       <c r="K285" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L285">
+        <v>11</v>
+      </c>
       <c r="M285" s="3">
         <v>290</v>
       </c>
@@ -28976,6 +29267,9 @@
       <c r="K291" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L291">
+        <v>11</v>
+      </c>
       <c r="M291" s="3">
         <v>284</v>
       </c>
@@ -29432,6 +29726,9 @@
       <c r="K303" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L303">
+        <v>11</v>
+      </c>
       <c r="M303" s="3">
         <v>301</v>
       </c>
@@ -29470,6 +29767,9 @@
       <c r="K304" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L304">
+        <v>11</v>
+      </c>
       <c r="M304" s="3">
         <v>304</v>
       </c>
@@ -29508,6 +29808,9 @@
       <c r="K305" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L305">
+        <v>11</v>
+      </c>
       <c r="M305" s="3">
         <v>303</v>
       </c>
@@ -32510,6 +32813,9 @@
       <c r="K384" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L384">
+        <v>12</v>
+      </c>
       <c r="M384" s="3">
         <v>387</v>
       </c>
@@ -32662,6 +32968,9 @@
       <c r="K388" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L388">
+        <v>12</v>
+      </c>
       <c r="M388" s="3">
         <v>389</v>
       </c>
@@ -32700,6 +33009,9 @@
       <c r="K389" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L389">
+        <v>12</v>
+      </c>
       <c r="M389" s="3">
         <v>387</v>
       </c>
@@ -32738,6 +33050,9 @@
       <c r="K390" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L390">
+        <v>12</v>
+      </c>
       <c r="M390" s="3">
         <v>390</v>
       </c>
@@ -32776,6 +33091,9 @@
       <c r="K391" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L391">
+        <v>12</v>
+      </c>
       <c r="M391" s="3">
         <v>391</v>
       </c>
@@ -32814,6 +33132,9 @@
       <c r="K392" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L392">
+        <v>12</v>
+      </c>
       <c r="M392" s="3">
         <v>390</v>
       </c>
@@ -34942,6 +35263,9 @@
       <c r="K448" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L448">
+        <v>5</v>
+      </c>
       <c r="M448" s="3">
         <v>36</v>
       </c>
@@ -35018,6 +35342,9 @@
       <c r="K450" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="L450">
+        <v>5</v>
+      </c>
       <c r="M450" s="3">
         <v>36</v>
       </c>
@@ -35093,6 +35420,9 @@
       </c>
       <c r="K452" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="L452">
+        <v>10</v>
       </c>
       <c r="M452" s="3">
         <v>235</v>
@@ -35146,15 +35476,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T453"/>
+  <dimension ref="A1:Z453"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:W16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>1</v>
       </c>
@@ -35162,7 +35492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -35200,7 +35530,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -35238,7 +35568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -35276,7 +35606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -35314,7 +35644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -35354,14 +35684,14 @@
       <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -35402,7 +35732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -35443,7 +35773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -35484,7 +35814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -35525,7 +35855,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -35566,7 +35896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -35607,7 +35937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -35648,7 +35978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -35689,7 +36019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -35727,7 +36057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -35764,8 +36094,26 @@
       <c r="M16" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>19</v>
+      </c>
+      <c r="T16">
+        <v>20</v>
+      </c>
+      <c r="U16">
+        <v>86</v>
+      </c>
+      <c r="V16">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -35802,8 +36150,26 @@
       <c r="M17" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>5</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>16</v>
+      </c>
+      <c r="U17">
+        <v>23</v>
+      </c>
+      <c r="V17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -35840,8 +36206,20 @@
       <c r="M18" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18">
+        <v>7</v>
+      </c>
+      <c r="R18">
+        <v>13</v>
+      </c>
+      <c r="S18">
+        <v>21</v>
+      </c>
+      <c r="T18">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -35878,8 +36256,20 @@
       <c r="M19" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19">
+        <v>14</v>
+      </c>
+      <c r="R19">
+        <v>15</v>
+      </c>
+      <c r="S19">
+        <v>22</v>
+      </c>
+      <c r="T19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -35916,8 +36306,23 @@
       <c r="M20" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20">
+        <v>36</v>
+      </c>
+      <c r="R20">
+        <v>37</v>
+      </c>
+      <c r="S20">
+        <v>38</v>
+      </c>
+      <c r="T20">
+        <v>447</v>
+      </c>
+      <c r="U20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -35954,8 +36359,26 @@
       <c r="M21" s="3">
         <v>115</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21">
+        <v>62</v>
+      </c>
+      <c r="R21">
+        <v>67</v>
+      </c>
+      <c r="S21">
+        <v>68</v>
+      </c>
+      <c r="T21">
+        <v>70</v>
+      </c>
+      <c r="U21">
+        <v>71</v>
+      </c>
+      <c r="V21">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -35992,8 +36415,20 @@
       <c r="M22" s="3">
         <v>261</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22">
+        <v>81</v>
+      </c>
+      <c r="R22">
+        <v>84</v>
+      </c>
+      <c r="S22">
+        <v>152</v>
+      </c>
+      <c r="T22">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -36030,8 +36465,38 @@
       <c r="M23" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23">
+        <v>176</v>
+      </c>
+      <c r="R23">
+        <v>266</v>
+      </c>
+      <c r="S23">
+        <v>267</v>
+      </c>
+      <c r="T23">
+        <v>268</v>
+      </c>
+      <c r="U23">
+        <v>269</v>
+      </c>
+      <c r="V23">
+        <v>271</v>
+      </c>
+      <c r="W23">
+        <v>272</v>
+      </c>
+      <c r="X23">
+        <v>273</v>
+      </c>
+      <c r="Y23">
+        <v>274</v>
+      </c>
+      <c r="Z23">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -36068,8 +36533,23 @@
       <c r="M24" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24">
+        <v>208</v>
+      </c>
+      <c r="R24">
+        <v>211</v>
+      </c>
+      <c r="S24">
+        <v>212</v>
+      </c>
+      <c r="T24">
+        <v>218</v>
+      </c>
+      <c r="U24">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -36106,8 +36586,20 @@
       <c r="M25" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25">
+        <v>229</v>
+      </c>
+      <c r="R25">
+        <v>235</v>
+      </c>
+      <c r="S25">
+        <v>236</v>
+      </c>
+      <c r="T25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -36144,8 +36636,23 @@
       <c r="M26" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26">
+        <v>284</v>
+      </c>
+      <c r="R26">
+        <v>290</v>
+      </c>
+      <c r="S26">
+        <v>302</v>
+      </c>
+      <c r="T26">
+        <v>303</v>
+      </c>
+      <c r="U26">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -36182,8 +36689,26 @@
       <c r="M27" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27">
+        <v>383</v>
+      </c>
+      <c r="R27">
+        <v>387</v>
+      </c>
+      <c r="S27">
+        <v>388</v>
+      </c>
+      <c r="T27">
+        <v>389</v>
+      </c>
+      <c r="U27">
+        <v>390</v>
+      </c>
+      <c r="V27">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -36221,7 +36746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -36259,7 +36784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -36297,7 +36822,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -36335,7 +36860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -52589,12 +53114,12 @@
       <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -69824,12 +70349,12 @@
       <c r="P6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="Q6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">

--- a/Archivos de excel/Clusters_cercanas.xlsx
+++ b/Archivos de excel/Clusters_cercanas.xlsx
@@ -35479,7 +35479,7 @@
   <dimension ref="A1:Z453"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
